--- a/data/pca/factorExposure/factorExposure_2016-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01752100620331909</v>
+        <v>0.01461600724726229</v>
       </c>
       <c r="C2">
-        <v>-0.04621852220457984</v>
+        <v>0.04102287084411081</v>
       </c>
       <c r="D2">
-        <v>-0.02638113898219277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0564696603548923</v>
+      </c>
+      <c r="E2">
+        <v>0.04139363243999208</v>
+      </c>
+      <c r="F2">
+        <v>-0.08979491992963015</v>
+      </c>
+      <c r="G2">
+        <v>0.02502719764932547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05920581152025881</v>
+        <v>0.03447812883966828</v>
       </c>
       <c r="C3">
-        <v>-0.09463469826121849</v>
+        <v>0.08241693069781636</v>
       </c>
       <c r="D3">
-        <v>-0.0663608981856158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09923582704350659</v>
+      </c>
+      <c r="E3">
+        <v>0.06888998806348989</v>
+      </c>
+      <c r="F3">
+        <v>-0.03849324753426495</v>
+      </c>
+      <c r="G3">
+        <v>-0.05967357904847571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06347093988631294</v>
+        <v>0.05786891263454737</v>
       </c>
       <c r="C4">
-        <v>-0.05998070630341186</v>
+        <v>0.06131443026462621</v>
       </c>
       <c r="D4">
-        <v>-0.01826157544480812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05862068285996484</v>
+      </c>
+      <c r="E4">
+        <v>0.04223442780479589</v>
+      </c>
+      <c r="F4">
+        <v>-0.08047167586013548</v>
+      </c>
+      <c r="G4">
+        <v>-0.04168351073363609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02828263227770099</v>
+        <v>0.03535541654041955</v>
       </c>
       <c r="C6">
-        <v>-0.04316113465933429</v>
+        <v>0.03512631453318091</v>
       </c>
       <c r="D6">
-        <v>-0.02529088256498756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06553788631583155</v>
+      </c>
+      <c r="E6">
+        <v>0.05534496772836293</v>
+      </c>
+      <c r="F6">
+        <v>-0.07329575200484963</v>
+      </c>
+      <c r="G6">
+        <v>-0.01872928911269658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02386163055749953</v>
+        <v>0.02155835586612719</v>
       </c>
       <c r="C7">
-        <v>-0.03822676247765185</v>
+        <v>0.03419934734444664</v>
       </c>
       <c r="D7">
-        <v>0.008751546684764027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03731786952834254</v>
+      </c>
+      <c r="E7">
+        <v>0.02922134694822031</v>
+      </c>
+      <c r="F7">
+        <v>-0.1135968923841369</v>
+      </c>
+      <c r="G7">
+        <v>-0.01023037871760465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.58333978358638e-05</v>
+        <v>0.005084355503203675</v>
       </c>
       <c r="C8">
-        <v>-0.01186099331004068</v>
+        <v>0.01972220346590801</v>
       </c>
       <c r="D8">
-        <v>-0.02416522012214332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03611804497787111</v>
+      </c>
+      <c r="E8">
+        <v>0.03086909488189565</v>
+      </c>
+      <c r="F8">
+        <v>-0.0579703643334438</v>
+      </c>
+      <c r="G8">
+        <v>-0.01076177330591452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02917975790799453</v>
+        <v>0.03674544150915465</v>
       </c>
       <c r="C9">
-        <v>-0.04120965259663987</v>
+        <v>0.04774977608328064</v>
       </c>
       <c r="D9">
-        <v>-0.01124127855007363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04270706238343261</v>
+      </c>
+      <c r="E9">
+        <v>0.03475861942216107</v>
+      </c>
+      <c r="F9">
+        <v>-0.08922411508947119</v>
+      </c>
+      <c r="G9">
+        <v>-0.02551873066868223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07600040941997015</v>
+        <v>0.09676415002252071</v>
       </c>
       <c r="C10">
-        <v>0.1952291926441949</v>
+        <v>-0.189446576273557</v>
       </c>
       <c r="D10">
-        <v>-0.01071066006935801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001580855471480387</v>
+      </c>
+      <c r="E10">
+        <v>0.03987445885052918</v>
+      </c>
+      <c r="F10">
+        <v>-0.04176647837503366</v>
+      </c>
+      <c r="G10">
+        <v>-0.00599266926826512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04247949681534861</v>
+        <v>0.03654094870306597</v>
       </c>
       <c r="C11">
-        <v>-0.05366937999488993</v>
+        <v>0.05019283830711426</v>
       </c>
       <c r="D11">
-        <v>0.002099299851773361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0321614551694714</v>
+      </c>
+      <c r="E11">
+        <v>0.002585067796122342</v>
+      </c>
+      <c r="F11">
+        <v>-0.06736369201027591</v>
+      </c>
+      <c r="G11">
+        <v>-0.01649921918829201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03590586268042083</v>
+        <v>0.03689305104584041</v>
       </c>
       <c r="C12">
-        <v>-0.04483260766416069</v>
+        <v>0.04537624213403324</v>
       </c>
       <c r="D12">
-        <v>0.002820679466547285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02498271728390719</v>
+      </c>
+      <c r="E12">
+        <v>0.01094058680690311</v>
+      </c>
+      <c r="F12">
+        <v>-0.06835665950941357</v>
+      </c>
+      <c r="G12">
+        <v>-0.01170954885055615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01052164044226611</v>
+        <v>0.01253550357365024</v>
       </c>
       <c r="C13">
-        <v>-0.04034448275805816</v>
+        <v>0.04006538056584173</v>
       </c>
       <c r="D13">
-        <v>-0.02145801363104026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06365509467292409</v>
+      </c>
+      <c r="E13">
+        <v>0.05852941873747772</v>
+      </c>
+      <c r="F13">
+        <v>-0.1202279464242</v>
+      </c>
+      <c r="G13">
+        <v>-0.02238748820770024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007150075043380496</v>
+        <v>0.005986495706848372</v>
       </c>
       <c r="C14">
-        <v>-0.03219312666672684</v>
+        <v>0.02770319936435647</v>
       </c>
       <c r="D14">
-        <v>0.01699951245849382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02888052352928059</v>
+      </c>
+      <c r="E14">
+        <v>0.02132030928594342</v>
+      </c>
+      <c r="F14">
+        <v>-0.09923304973212912</v>
+      </c>
+      <c r="G14">
+        <v>0.004889052859048701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001180433923047944</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0009190263510343093</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001572067172937957</v>
+      </c>
+      <c r="E15">
+        <v>-0.0003745088124616733</v>
+      </c>
+      <c r="F15">
+        <v>-0.0004016692607865367</v>
+      </c>
+      <c r="G15">
+        <v>0.001000718658634372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03554107793994302</v>
+        <v>0.03367882186414561</v>
       </c>
       <c r="C16">
-        <v>-0.04044972192693017</v>
+        <v>0.04382014112695547</v>
       </c>
       <c r="D16">
-        <v>-0.003913339091426491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0278658222061017</v>
+      </c>
+      <c r="E16">
+        <v>0.01732955816458374</v>
+      </c>
+      <c r="F16">
+        <v>-0.07138153549804607</v>
+      </c>
+      <c r="G16">
+        <v>-0.00206856481551913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03143089411791876</v>
+        <v>0.01825739755522283</v>
       </c>
       <c r="C19">
-        <v>-0.0603457719940259</v>
+        <v>0.0494976673652498</v>
       </c>
       <c r="D19">
-        <v>-0.06283833630042132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1032325004022364</v>
+      </c>
+      <c r="E19">
+        <v>0.07855353041010596</v>
+      </c>
+      <c r="F19">
+        <v>-0.1117651548618575</v>
+      </c>
+      <c r="G19">
+        <v>0.01544308072604216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0145608172622974</v>
+        <v>0.01404888714430669</v>
       </c>
       <c r="C20">
-        <v>-0.04425922895080398</v>
+        <v>0.03891945558846171</v>
       </c>
       <c r="D20">
-        <v>-0.01499397075094401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04065997440492611</v>
+      </c>
+      <c r="E20">
+        <v>0.05218011136918222</v>
+      </c>
+      <c r="F20">
+        <v>-0.09517538978601287</v>
+      </c>
+      <c r="G20">
+        <v>-0.007174390851169538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009125631361095263</v>
+        <v>0.007625616139404203</v>
       </c>
       <c r="C21">
-        <v>-0.04671936491992074</v>
+        <v>0.04125243788264742</v>
       </c>
       <c r="D21">
-        <v>-0.0402388180578702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06928007250124744</v>
+      </c>
+      <c r="E21">
+        <v>0.06128803500734798</v>
+      </c>
+      <c r="F21">
+        <v>-0.1357529372657364</v>
+      </c>
+      <c r="G21">
+        <v>-0.007297779631681931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003410732147207132</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01484528789269922</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02998722519339903</v>
+      </c>
+      <c r="E22">
+        <v>0.01077352785587255</v>
+      </c>
+      <c r="F22">
+        <v>-0.01347961496708558</v>
+      </c>
+      <c r="G22">
+        <v>-0.03521022088376651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003460485824127622</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01481213169168068</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02967558132290781</v>
+      </c>
+      <c r="E23">
+        <v>0.01099474671425383</v>
+      </c>
+      <c r="F23">
+        <v>-0.01317961646931847</v>
+      </c>
+      <c r="G23">
+        <v>-0.03518568587320767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02978556541764713</v>
+        <v>0.03246163724323985</v>
       </c>
       <c r="C24">
-        <v>-0.04665918177351795</v>
+        <v>0.05043898473962233</v>
       </c>
       <c r="D24">
-        <v>0.004506888832248002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02567654085905037</v>
+      </c>
+      <c r="E24">
+        <v>0.01136765224582523</v>
+      </c>
+      <c r="F24">
+        <v>-0.07778735102197165</v>
+      </c>
+      <c r="G24">
+        <v>-0.009750812714657333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04716907587345322</v>
+        <v>0.04242558897102606</v>
       </c>
       <c r="C25">
-        <v>-0.05738864105231518</v>
+        <v>0.05708128518725284</v>
       </c>
       <c r="D25">
-        <v>0.01644685998245013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02407113921101188</v>
+      </c>
+      <c r="E25">
+        <v>0.00799524573966195</v>
+      </c>
+      <c r="F25">
+        <v>-0.07987338168358189</v>
+      </c>
+      <c r="G25">
+        <v>-0.02662668363899808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009800855355930407</v>
+        <v>0.01412198468514346</v>
       </c>
       <c r="C26">
-        <v>-0.01640556118702777</v>
+        <v>0.01407530124850202</v>
       </c>
       <c r="D26">
-        <v>-0.006471909000011673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02417386186070871</v>
+      </c>
+      <c r="E26">
+        <v>0.02310081032024707</v>
+      </c>
+      <c r="F26">
+        <v>-0.07847984699987019</v>
+      </c>
+      <c r="G26">
+        <v>0.01137685019355731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0902525942163392</v>
+        <v>0.130203206269938</v>
       </c>
       <c r="C28">
-        <v>0.2240301617940713</v>
+        <v>-0.2398642337032952</v>
       </c>
       <c r="D28">
-        <v>-0.01027845522865498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0184528066799238</v>
+      </c>
+      <c r="E28">
+        <v>0.03946089913441399</v>
+      </c>
+      <c r="F28">
+        <v>-0.05418757953346436</v>
+      </c>
+      <c r="G28">
+        <v>-0.01688214901379903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01230544065794187</v>
+        <v>0.007694217963259723</v>
       </c>
       <c r="C29">
-        <v>-0.02469378834374712</v>
+        <v>0.02357321905860064</v>
       </c>
       <c r="D29">
-        <v>0.0160834074797446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01896476604067246</v>
+      </c>
+      <c r="E29">
+        <v>0.0250634965667321</v>
+      </c>
+      <c r="F29">
+        <v>-0.08875434104292323</v>
+      </c>
+      <c r="G29">
+        <v>-0.007002610725003743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04502574094892833</v>
+        <v>0.03966394242071359</v>
       </c>
       <c r="C30">
-        <v>-0.07036893754063378</v>
+        <v>0.058685384347433</v>
       </c>
       <c r="D30">
-        <v>-0.02609602236217928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1040384148809602</v>
+      </c>
+      <c r="E30">
+        <v>0.02979730961504828</v>
+      </c>
+      <c r="F30">
+        <v>-0.1014796076650276</v>
+      </c>
+      <c r="G30">
+        <v>0.01628642748556844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04364690874496285</v>
+        <v>0.05504524824700167</v>
       </c>
       <c r="C31">
-        <v>-0.03095372556115998</v>
+        <v>0.04672992320552803</v>
       </c>
       <c r="D31">
-        <v>0.02086356489802004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004822349240747684</v>
+      </c>
+      <c r="E31">
+        <v>0.04070617197544164</v>
+      </c>
+      <c r="F31">
+        <v>-0.08620744470607321</v>
+      </c>
+      <c r="G31">
+        <v>-0.045584576188042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005804758055819423</v>
+        <v>0.002221978499465085</v>
       </c>
       <c r="C32">
-        <v>-0.04298619802146823</v>
+        <v>0.03192928395416585</v>
       </c>
       <c r="D32">
-        <v>-0.0362770687181526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05297353289023292</v>
+      </c>
+      <c r="E32">
+        <v>0.01681364028235107</v>
+      </c>
+      <c r="F32">
+        <v>-0.06907775476607529</v>
+      </c>
+      <c r="G32">
+        <v>0.008060860487604175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0286732848469291</v>
+        <v>0.02475685282269446</v>
       </c>
       <c r="C33">
-        <v>-0.06271994923634265</v>
+        <v>0.05108120963393425</v>
       </c>
       <c r="D33">
-        <v>-0.02380671764482414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08064240683337463</v>
+      </c>
+      <c r="E33">
+        <v>0.0438874498042341</v>
+      </c>
+      <c r="F33">
+        <v>-0.1327596986570444</v>
+      </c>
+      <c r="G33">
+        <v>-0.02520946530543081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05225177812998632</v>
+        <v>0.04167301248287045</v>
       </c>
       <c r="C34">
-        <v>-0.05475234963382162</v>
+        <v>0.06231008207562838</v>
       </c>
       <c r="D34">
-        <v>0.01133383696887371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03282750999611113</v>
+      </c>
+      <c r="E34">
+        <v>-0.007170447394184713</v>
+      </c>
+      <c r="F34">
+        <v>-0.07714964028453021</v>
+      </c>
+      <c r="G34">
+        <v>-0.01350397734678512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008812191646031683</v>
+        <v>0.01501425160898867</v>
       </c>
       <c r="C36">
-        <v>-0.01216296584178335</v>
+        <v>0.009320118498954652</v>
       </c>
       <c r="D36">
-        <v>-0.001977660740498478</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02567420477922276</v>
+      </c>
+      <c r="E36">
+        <v>0.03019335723801179</v>
+      </c>
+      <c r="F36">
+        <v>-0.08681839353966347</v>
+      </c>
+      <c r="G36">
+        <v>-0.01334596433727418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03467528386018089</v>
+        <v>0.02670394076641986</v>
       </c>
       <c r="C38">
-        <v>-0.02385289363798188</v>
+        <v>0.02294249327869335</v>
       </c>
       <c r="D38">
-        <v>0.001111236457582275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02580372877285526</v>
+      </c>
+      <c r="E38">
+        <v>0.03276427242106474</v>
+      </c>
+      <c r="F38">
+        <v>-0.07218008507121856</v>
+      </c>
+      <c r="G38">
+        <v>-0.0101594258478264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0406444217254647</v>
+        <v>0.03808726721231588</v>
       </c>
       <c r="C39">
-        <v>-0.07278378932442282</v>
+        <v>0.06531247674109039</v>
       </c>
       <c r="D39">
-        <v>-0.01754520969835515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0503070329064898</v>
+      </c>
+      <c r="E39">
+        <v>0.01356239401552887</v>
+      </c>
+      <c r="F39">
+        <v>-0.09367041590372752</v>
+      </c>
+      <c r="G39">
+        <v>0.01468760406932836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01833302918888029</v>
+        <v>0.0176428507306931</v>
       </c>
       <c r="C40">
-        <v>-0.02764081731066208</v>
+        <v>0.03537115790829407</v>
       </c>
       <c r="D40">
-        <v>-0.03646192423636935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03692248232501084</v>
+      </c>
+      <c r="E40">
+        <v>0.0659803924937665</v>
+      </c>
+      <c r="F40">
+        <v>-0.09574216023439061</v>
+      </c>
+      <c r="G40">
+        <v>-0.05216154083310312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0105661376061557</v>
+        <v>0.01842314369759742</v>
       </c>
       <c r="C41">
-        <v>-0.003366835472020488</v>
+        <v>0.003137061643210442</v>
       </c>
       <c r="D41">
-        <v>0.003380338852760476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01787995026297656</v>
+      </c>
+      <c r="E41">
+        <v>0.03311859067460737</v>
+      </c>
+      <c r="F41">
+        <v>-0.0774627213664399</v>
+      </c>
+      <c r="G41">
+        <v>-0.005012021266078273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005353211003527266</v>
+        <v>0.002948533208341449</v>
       </c>
       <c r="C42">
-        <v>-0.01826359508513867</v>
+        <v>0.009776970897073299</v>
       </c>
       <c r="D42">
-        <v>0.002598895455612692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00251946360328695</v>
+      </c>
+      <c r="E42">
+        <v>0.002828191232784889</v>
+      </c>
+      <c r="F42">
+        <v>0.01083597096966231</v>
+      </c>
+      <c r="G42">
+        <v>-0.01145058301343398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03180786564634448</v>
+        <v>0.03086221305136668</v>
       </c>
       <c r="C43">
-        <v>-0.01650354172257533</v>
+        <v>0.01780625443729331</v>
       </c>
       <c r="D43">
-        <v>-0.002032369042303848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04072384221353096</v>
+      </c>
+      <c r="E43">
+        <v>0.03551114968161694</v>
+      </c>
+      <c r="F43">
+        <v>-0.09340789287636193</v>
+      </c>
+      <c r="G43">
+        <v>-0.02758584139121526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02120795108595908</v>
+        <v>0.01564540261209488</v>
       </c>
       <c r="C44">
-        <v>-0.05398007317766347</v>
+        <v>0.05125892185251738</v>
       </c>
       <c r="D44">
-        <v>-0.01431870532237497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04196142285585754</v>
+      </c>
+      <c r="E44">
+        <v>0.05410828367363538</v>
+      </c>
+      <c r="F44">
+        <v>-0.1001383801845856</v>
+      </c>
+      <c r="G44">
+        <v>-0.0008667008625000478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0003576491349168927</v>
+        <v>0.008130803047264648</v>
       </c>
       <c r="C46">
-        <v>-0.01895385274391884</v>
+        <v>0.02137780228229431</v>
       </c>
       <c r="D46">
-        <v>0.01759998446628046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01266743402849869</v>
+      </c>
+      <c r="E46">
+        <v>0.02853713300162656</v>
+      </c>
+      <c r="F46">
+        <v>-0.104036940681028</v>
+      </c>
+      <c r="G46">
+        <v>-0.002642035474790425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07722991842825061</v>
+        <v>0.08610431022097584</v>
       </c>
       <c r="C47">
-        <v>-0.07218969825231772</v>
+        <v>0.07882505333680137</v>
       </c>
       <c r="D47">
-        <v>0.01742765402622701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01255974035275183</v>
+      </c>
+      <c r="E47">
+        <v>0.04681550217480898</v>
+      </c>
+      <c r="F47">
+        <v>-0.08358490755571188</v>
+      </c>
+      <c r="G47">
+        <v>-0.04842371904371862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01796425640715631</v>
+        <v>0.01620026817479719</v>
       </c>
       <c r="C48">
-        <v>-0.01192912099055829</v>
+        <v>0.01443807665068871</v>
       </c>
       <c r="D48">
-        <v>0.008538079575700377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01672370789593708</v>
+      </c>
+      <c r="E48">
+        <v>0.03965312589456538</v>
+      </c>
+      <c r="F48">
+        <v>-0.1002790682138273</v>
+      </c>
+      <c r="G48">
+        <v>-0.01011993497175242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08757236126556388</v>
+        <v>0.0725713656231179</v>
       </c>
       <c r="C50">
-        <v>-0.06734984807167434</v>
+        <v>0.06839145040944199</v>
       </c>
       <c r="D50">
-        <v>0.03003787355625429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001590914832565891</v>
+      </c>
+      <c r="E50">
+        <v>0.04566449746110134</v>
+      </c>
+      <c r="F50">
+        <v>-0.07323892874377441</v>
+      </c>
+      <c r="G50">
+        <v>-0.07628117697845629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01318719785708545</v>
+        <v>0.01032396348690245</v>
       </c>
       <c r="C51">
-        <v>-0.04658272332813809</v>
+        <v>0.03347958822723856</v>
       </c>
       <c r="D51">
-        <v>-0.004649339375270752</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04752595991333011</v>
+      </c>
+      <c r="E51">
+        <v>0.01672055516362237</v>
+      </c>
+      <c r="F51">
+        <v>-0.09142782681069388</v>
+      </c>
+      <c r="G51">
+        <v>0.01253122708615011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09598323841310635</v>
+        <v>0.09143949708434036</v>
       </c>
       <c r="C53">
-        <v>-0.07504096926536306</v>
+        <v>0.08653808674461047</v>
       </c>
       <c r="D53">
-        <v>0.03855535004819223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03827709965112675</v>
+      </c>
+      <c r="E53">
+        <v>0.04923256796635089</v>
+      </c>
+      <c r="F53">
+        <v>-0.08853917383512722</v>
+      </c>
+      <c r="G53">
+        <v>-0.05574612916007272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0295499919537636</v>
+        <v>0.02977833727134851</v>
       </c>
       <c r="C54">
-        <v>-0.0148714009901873</v>
+        <v>0.02329331202073617</v>
       </c>
       <c r="D54">
-        <v>-0.00329316969464695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03394088107699279</v>
+      </c>
+      <c r="E54">
+        <v>0.02939080416182652</v>
+      </c>
+      <c r="F54">
+        <v>-0.09951059677347956</v>
+      </c>
+      <c r="G54">
+        <v>-0.006785518305248283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07471782651641314</v>
+        <v>0.08325561523700765</v>
       </c>
       <c r="C55">
-        <v>-0.0686734645892884</v>
+        <v>0.06948964761259745</v>
       </c>
       <c r="D55">
-        <v>0.04447317323858133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04669786873307053</v>
+      </c>
+      <c r="E55">
+        <v>0.03981970434112086</v>
+      </c>
+      <c r="F55">
+        <v>-0.06288758797787777</v>
+      </c>
+      <c r="G55">
+        <v>-0.04791196652992302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1529420769073326</v>
+        <v>0.1452795539848818</v>
       </c>
       <c r="C56">
-        <v>-0.09097003527486486</v>
+        <v>0.1032316224568208</v>
       </c>
       <c r="D56">
-        <v>0.03939359661414917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04850848828953493</v>
+      </c>
+      <c r="E56">
+        <v>0.04631831923914973</v>
+      </c>
+      <c r="F56">
+        <v>-0.05318114774457768</v>
+      </c>
+      <c r="G56">
+        <v>-0.05364430240514752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00552021387295315</v>
+        <v>0.002403101780640666</v>
       </c>
       <c r="C57">
-        <v>-0.001951094192044753</v>
+        <v>0.0009489239477626916</v>
       </c>
       <c r="D57">
-        <v>-0.02073275305983497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01659125708863724</v>
+      </c>
+      <c r="E57">
+        <v>0.00831174930607575</v>
+      </c>
+      <c r="F57">
+        <v>-0.01459611356429309</v>
+      </c>
+      <c r="G57">
+        <v>-0.003205507563918955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06068357955229418</v>
+        <v>0.03556425599195689</v>
       </c>
       <c r="C58">
-        <v>-0.0583987161015706</v>
+        <v>0.03100093427090461</v>
       </c>
       <c r="D58">
-        <v>-0.9232092932610512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.501626590212261</v>
+      </c>
+      <c r="E58">
+        <v>0.7037138603394875</v>
+      </c>
+      <c r="F58">
+        <v>0.4204187554379997</v>
+      </c>
+      <c r="G58">
+        <v>0.04962024622167025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1323955804680458</v>
+        <v>0.1460821161774872</v>
       </c>
       <c r="C59">
-        <v>0.2051558590941237</v>
+        <v>-0.1922706858103055</v>
       </c>
       <c r="D59">
-        <v>-0.022577391550395</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02796703740658531</v>
+      </c>
+      <c r="E59">
+        <v>0.01984929437045168</v>
+      </c>
+      <c r="F59">
+        <v>-0.02311666974400661</v>
+      </c>
+      <c r="G59">
+        <v>0.03131646716300519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3156318387571758</v>
+        <v>0.2837520374046036</v>
       </c>
       <c r="C60">
-        <v>-0.08214972199091602</v>
+        <v>0.09355171206731984</v>
       </c>
       <c r="D60">
-        <v>-0.03858575401311078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2101232904013359</v>
+      </c>
+      <c r="E60">
+        <v>-0.2779348182675306</v>
+      </c>
+      <c r="F60">
+        <v>0.1268759628248312</v>
+      </c>
+      <c r="G60">
+        <v>-0.04915751651781494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03721991401899743</v>
+        <v>0.04025588793464779</v>
       </c>
       <c r="C61">
-        <v>-0.06089863126809819</v>
+        <v>0.0594454420291435</v>
       </c>
       <c r="D61">
-        <v>-0.01402758091590263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04644075029550126</v>
+      </c>
+      <c r="E61">
+        <v>0.01917771438769757</v>
+      </c>
+      <c r="F61">
+        <v>-0.08386527560563994</v>
+      </c>
+      <c r="G61">
+        <v>-0.01428386656627437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0161315739908686</v>
+        <v>0.01624050823275237</v>
       </c>
       <c r="C63">
-        <v>-0.03211495470268977</v>
+        <v>0.02925983611723976</v>
       </c>
       <c r="D63">
-        <v>0.007661161113246257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02019778851151764</v>
+      </c>
+      <c r="E63">
+        <v>0.03304835405173361</v>
+      </c>
+      <c r="F63">
+        <v>-0.07910231512418767</v>
+      </c>
+      <c r="G63">
+        <v>-0.03002355882044125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04834527346636994</v>
+        <v>0.05320102285724734</v>
       </c>
       <c r="C64">
-        <v>-0.02776063351195603</v>
+        <v>0.04893228690104778</v>
       </c>
       <c r="D64">
-        <v>0.009089539503253054</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01416644077374621</v>
+      </c>
+      <c r="E64">
+        <v>0.01703540320447483</v>
+      </c>
+      <c r="F64">
+        <v>-0.09310394111643319</v>
+      </c>
+      <c r="G64">
+        <v>-0.005683722605405521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09106959105828259</v>
+        <v>0.06903129574016935</v>
       </c>
       <c r="C65">
-        <v>-0.04838897246483848</v>
+        <v>0.03839380761386041</v>
       </c>
       <c r="D65">
-        <v>-0.02812755645090251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08159186646725591</v>
+      </c>
+      <c r="E65">
+        <v>0.03291146517334162</v>
+      </c>
+      <c r="F65">
+        <v>-0.02776042199724434</v>
+      </c>
+      <c r="G65">
+        <v>0.002775721293780007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0648547737166692</v>
+        <v>0.05164355555052984</v>
       </c>
       <c r="C66">
-        <v>-0.1088741093089167</v>
+        <v>0.08930105850780597</v>
       </c>
       <c r="D66">
-        <v>-0.02377768162914784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07667263679595196</v>
+      </c>
+      <c r="E66">
+        <v>0.01731722395487978</v>
+      </c>
+      <c r="F66">
+        <v>-0.09553318560215299</v>
+      </c>
+      <c r="G66">
+        <v>-0.003992146872962653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05968467835754685</v>
+        <v>0.0491413571330166</v>
       </c>
       <c r="C67">
-        <v>-0.02897038243370801</v>
+        <v>0.0286502320399917</v>
       </c>
       <c r="D67">
-        <v>0.007499269181457751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01368391589705586</v>
+      </c>
+      <c r="E67">
+        <v>0.01895930778030209</v>
+      </c>
+      <c r="F67">
+        <v>-0.05854203813924587</v>
+      </c>
+      <c r="G67">
+        <v>-0.01422189025353793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1172751524722804</v>
+        <v>0.152813477509479</v>
       </c>
       <c r="C68">
-        <v>0.2930754075679331</v>
+        <v>-0.2609637788740596</v>
       </c>
       <c r="D68">
-        <v>-0.006101749724110943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02398806309303466</v>
+      </c>
+      <c r="E68">
+        <v>0.03474347007782546</v>
+      </c>
+      <c r="F68">
+        <v>-0.02116367488261699</v>
+      </c>
+      <c r="G68">
+        <v>-0.006553042414773712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08740765689041834</v>
+        <v>0.0864646261015324</v>
       </c>
       <c r="C69">
-        <v>-0.06742441244839363</v>
+        <v>0.08312828652277247</v>
       </c>
       <c r="D69">
-        <v>0.04453784972948197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008813820197976066</v>
+      </c>
+      <c r="E69">
+        <v>0.02081909021027</v>
+      </c>
+      <c r="F69">
+        <v>-0.09746912606682086</v>
+      </c>
+      <c r="G69">
+        <v>-0.02443867391606026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1193011891618401</v>
+        <v>0.1412272339317192</v>
       </c>
       <c r="C71">
-        <v>0.2448329559550294</v>
+        <v>-0.2356873408427816</v>
       </c>
       <c r="D71">
-        <v>-0.01915673884850545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01032245380846514</v>
+      </c>
+      <c r="E71">
+        <v>0.05264428929037762</v>
+      </c>
+      <c r="F71">
+        <v>-0.05851860591053297</v>
+      </c>
+      <c r="G71">
+        <v>-0.02848958007264871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08506917325971582</v>
+        <v>0.09244677977897518</v>
       </c>
       <c r="C72">
-        <v>-0.05132909322969369</v>
+        <v>0.05445071295623218</v>
       </c>
       <c r="D72">
-        <v>0.02364917671157573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01795700968857175</v>
+      </c>
+      <c r="E72">
+        <v>0.007738589740240397</v>
+      </c>
+      <c r="F72">
+        <v>-0.07306701910931315</v>
+      </c>
+      <c r="G72">
+        <v>-0.02156924193117186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4445403226369916</v>
+        <v>0.3515370914620123</v>
       </c>
       <c r="C73">
-        <v>-0.06433926717104657</v>
+        <v>0.07399646262786154</v>
       </c>
       <c r="D73">
-        <v>-0.125977704283616</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.427949243607841</v>
+      </c>
+      <c r="E73">
+        <v>-0.4758488293136264</v>
+      </c>
+      <c r="F73">
+        <v>0.3069231275084154</v>
+      </c>
+      <c r="G73">
+        <v>-0.09541541836869434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1198383892461204</v>
+        <v>0.1122665390533393</v>
       </c>
       <c r="C74">
-        <v>-0.1150740376291691</v>
+        <v>0.1017098179466068</v>
       </c>
       <c r="D74">
-        <v>0.04041042073761136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02624023783692897</v>
+      </c>
+      <c r="E74">
+        <v>0.06680653034327209</v>
+      </c>
+      <c r="F74">
+        <v>-0.06655812848334555</v>
+      </c>
+      <c r="G74">
+        <v>-0.07139592764145243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2599959754467022</v>
+        <v>0.2551904055166129</v>
       </c>
       <c r="C75">
-        <v>-0.1266860457405801</v>
+        <v>0.1425202856510898</v>
       </c>
       <c r="D75">
-        <v>0.08310893699486815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1260123330918295</v>
+      </c>
+      <c r="E75">
+        <v>0.08248213611293266</v>
+      </c>
+      <c r="F75">
+        <v>-0.02794484018884471</v>
+      </c>
+      <c r="G75">
+        <v>-0.07120770956610653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1195396327057765</v>
+        <v>0.1287706174665431</v>
       </c>
       <c r="C76">
-        <v>-0.1043024734145668</v>
+        <v>0.1052829340613633</v>
       </c>
       <c r="D76">
-        <v>0.05328668041648291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06029749922503136</v>
+      </c>
+      <c r="E76">
+        <v>0.07221426948234884</v>
+      </c>
+      <c r="F76">
+        <v>-0.07002937144600911</v>
+      </c>
+      <c r="G76">
+        <v>-0.0570903530914287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07421008317020213</v>
+        <v>0.06281054635667657</v>
       </c>
       <c r="C77">
-        <v>-0.05774839892899414</v>
+        <v>0.06659520397888441</v>
       </c>
       <c r="D77">
-        <v>-0.05103696682502954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06131254873335255</v>
+      </c>
+      <c r="E77">
+        <v>0.06048078705605289</v>
+      </c>
+      <c r="F77">
+        <v>-0.1153165007305536</v>
+      </c>
+      <c r="G77">
+        <v>0.1258471262397803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04441266373599327</v>
+        <v>0.04133637567769832</v>
       </c>
       <c r="C78">
-        <v>-0.04392587606862393</v>
+        <v>0.05313140167781558</v>
       </c>
       <c r="D78">
-        <v>-0.01999075878444853</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0699532535596661</v>
+      </c>
+      <c r="E78">
+        <v>0.01135777316272163</v>
+      </c>
+      <c r="F78">
+        <v>-0.09665080500441975</v>
+      </c>
+      <c r="G78">
+        <v>-0.007086719182579908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01194482644654414</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03296364647885887</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04575768021319612</v>
+      </c>
+      <c r="E79">
+        <v>0.03433993453412446</v>
+      </c>
+      <c r="F79">
+        <v>-0.0218056862515173</v>
+      </c>
+      <c r="G79">
+        <v>-0.04098009145042956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04991554713643929</v>
+        <v>0.03845548372997034</v>
       </c>
       <c r="C80">
-        <v>-0.05171518591351026</v>
+        <v>0.04702365235789239</v>
       </c>
       <c r="D80">
-        <v>-0.03864673099488009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04425252019295299</v>
+      </c>
+      <c r="E80">
+        <v>0.0146325962444087</v>
+      </c>
+      <c r="F80">
+        <v>-0.03571467828680672</v>
+      </c>
+      <c r="G80">
+        <v>0.04127438618449582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1379151403573471</v>
+        <v>0.140563365357511</v>
       </c>
       <c r="C81">
-        <v>-0.08139715429269143</v>
+        <v>0.09779240559728629</v>
       </c>
       <c r="D81">
-        <v>0.05149570533694824</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09018394172223228</v>
+      </c>
+      <c r="E81">
+        <v>0.07971196998866266</v>
+      </c>
+      <c r="F81">
+        <v>-0.03210759027744129</v>
+      </c>
+      <c r="G81">
+        <v>-0.05637320361091111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.07165707812804002</v>
+        <v>0.1914873884815945</v>
       </c>
       <c r="C82">
-        <v>-0.04495296951285302</v>
+        <v>0.137195261043449</v>
       </c>
       <c r="D82">
-        <v>0.03055874388119157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2218850791833636</v>
+      </c>
+      <c r="E82">
+        <v>0.004418857583130698</v>
+      </c>
+      <c r="F82">
+        <v>-0.07883454722956275</v>
+      </c>
+      <c r="G82">
+        <v>-0.0294030853404765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02726379714805783</v>
+        <v>0.02738407750181135</v>
       </c>
       <c r="C83">
-        <v>-0.01945225090870421</v>
+        <v>0.03509815226885649</v>
       </c>
       <c r="D83">
-        <v>-0.02191536735091021</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03395135575015793</v>
+      </c>
+      <c r="E83">
+        <v>0.005724214926874581</v>
+      </c>
+      <c r="F83">
+        <v>-0.05130068118427443</v>
+      </c>
+      <c r="G83">
+        <v>0.02274249606031429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2415415766428004</v>
+        <v>0.2085654350670525</v>
       </c>
       <c r="C85">
-        <v>-0.1165657151427584</v>
+        <v>0.1243565481672897</v>
       </c>
       <c r="D85">
-        <v>0.1470095825990196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1082723047966826</v>
+      </c>
+      <c r="E85">
+        <v>0.01300040904623727</v>
+      </c>
+      <c r="F85">
+        <v>0.01851608586305407</v>
+      </c>
+      <c r="G85">
+        <v>-0.1160781383013247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01087989110688172</v>
+        <v>0.01210169216437854</v>
       </c>
       <c r="C86">
-        <v>-0.02686718824203869</v>
+        <v>0.03156389991403401</v>
       </c>
       <c r="D86">
-        <v>-0.03656028125368914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07672706664764957</v>
+      </c>
+      <c r="E86">
+        <v>0.04131905018425926</v>
+      </c>
+      <c r="F86">
+        <v>-0.1455978940057581</v>
+      </c>
+      <c r="G86">
+        <v>0.005734517395073109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01363734938402384</v>
+        <v>0.02039344997041558</v>
       </c>
       <c r="C87">
-        <v>-0.02448970450196679</v>
+        <v>0.01835982285424244</v>
       </c>
       <c r="D87">
-        <v>-0.08892625533018869</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09070504987956525</v>
+      </c>
+      <c r="E87">
+        <v>0.07824365666929488</v>
+      </c>
+      <c r="F87">
+        <v>-0.1002614046791616</v>
+      </c>
+      <c r="G87">
+        <v>0.03288378284158366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1022480830262109</v>
+        <v>0.08909095246538219</v>
       </c>
       <c r="C88">
-        <v>-0.07257211165931464</v>
+        <v>0.06257689108323142</v>
       </c>
       <c r="D88">
-        <v>0.02266925855739078</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01287697194683165</v>
+      </c>
+      <c r="E88">
+        <v>0.0267394891745602</v>
+      </c>
+      <c r="F88">
+        <v>-0.07353690244531476</v>
+      </c>
+      <c r="G88">
+        <v>0.03010287526411094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1882878382347432</v>
+        <v>0.2212173772707237</v>
       </c>
       <c r="C89">
-        <v>0.3756475861324857</v>
+        <v>-0.382413332304265</v>
       </c>
       <c r="D89">
-        <v>0.02037907257045634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0257218261267991</v>
+      </c>
+      <c r="E89">
+        <v>0.02979012951261789</v>
+      </c>
+      <c r="F89">
+        <v>-0.09342608077271711</v>
+      </c>
+      <c r="G89">
+        <v>0.06813471363889227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1741246347250717</v>
+        <v>0.1998065519191275</v>
       </c>
       <c r="C90">
-        <v>0.3501834660928521</v>
+        <v>-0.3196917075317854</v>
       </c>
       <c r="D90">
-        <v>-0.008678330265084829</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0171846501739931</v>
+      </c>
+      <c r="E90">
+        <v>0.05873136136788615</v>
+      </c>
+      <c r="F90">
+        <v>-0.05231839211127084</v>
+      </c>
+      <c r="G90">
+        <v>0.01322729425550975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2020505421113436</v>
+        <v>0.1923851343378548</v>
       </c>
       <c r="C91">
-        <v>-0.1135530232188892</v>
+        <v>0.1385419583572872</v>
       </c>
       <c r="D91">
-        <v>0.07186585594497343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.103678754981413</v>
+      </c>
+      <c r="E91">
+        <v>0.07463700301662135</v>
+      </c>
+      <c r="F91">
+        <v>-0.04786604267041324</v>
+      </c>
+      <c r="G91">
+        <v>-0.05743583642118458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1688447831677861</v>
+        <v>0.1821988351149987</v>
       </c>
       <c r="C92">
-        <v>0.2792327146840082</v>
+        <v>-0.278547877770211</v>
       </c>
       <c r="D92">
-        <v>0.01403751864419152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01111340088809951</v>
+      </c>
+      <c r="E92">
+        <v>0.0760430244842269</v>
+      </c>
+      <c r="F92">
+        <v>-0.07297356778747495</v>
+      </c>
+      <c r="G92">
+        <v>0.01463713843298872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1960333635098964</v>
+        <v>0.223465391542907</v>
       </c>
       <c r="C93">
-        <v>0.3419551504128887</v>
+        <v>-0.3205445734942052</v>
       </c>
       <c r="D93">
-        <v>-0.006194443278275868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005914744236388575</v>
+      </c>
+      <c r="E93">
+        <v>0.05022933738941337</v>
+      </c>
+      <c r="F93">
+        <v>-0.04927664463616144</v>
+      </c>
+      <c r="G93">
+        <v>-0.02826170517415242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2821092505252274</v>
+        <v>0.3430993331938881</v>
       </c>
       <c r="C94">
-        <v>-0.1455924225120897</v>
+        <v>0.196080135858375</v>
       </c>
       <c r="D94">
-        <v>0.1712934851346468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.473063863396869</v>
+      </c>
+      <c r="E94">
+        <v>0.1735736343598731</v>
+      </c>
+      <c r="F94">
+        <v>0.4341354150295104</v>
+      </c>
+      <c r="G94">
+        <v>0.2904738697975029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09243391722932033</v>
+        <v>0.0833342042900715</v>
       </c>
       <c r="C95">
-        <v>-0.07563872651843692</v>
+        <v>0.07627799950112626</v>
       </c>
       <c r="D95">
-        <v>-0.07963797832546278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1502618124813405</v>
+      </c>
+      <c r="E95">
+        <v>-0.1282060808947566</v>
+      </c>
+      <c r="F95">
+        <v>-0.1786789185297954</v>
+      </c>
+      <c r="G95">
+        <v>0.8875868420187513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2069359906989009</v>
+        <v>0.1899351839248605</v>
       </c>
       <c r="C98">
-        <v>-0.02335254356421446</v>
+        <v>0.03683920366038848</v>
       </c>
       <c r="D98">
-        <v>-0.06132528529304397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1751564330649494</v>
+      </c>
+      <c r="E98">
+        <v>-0.154116578720151</v>
+      </c>
+      <c r="F98">
+        <v>0.0470018635005795</v>
+      </c>
+      <c r="G98">
+        <v>-0.1042417926196169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01198449112192371</v>
+        <v>0.007466099074738016</v>
       </c>
       <c r="C101">
-        <v>-0.02481497558556595</v>
+        <v>0.02348300784072628</v>
       </c>
       <c r="D101">
-        <v>0.01641579046943235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0183983265191961</v>
+      </c>
+      <c r="E101">
+        <v>0.02544068096921786</v>
+      </c>
+      <c r="F101">
+        <v>-0.08836740856954398</v>
+      </c>
+      <c r="G101">
+        <v>-0.006076745561126074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1226297387789991</v>
+        <v>0.1238796107037355</v>
       </c>
       <c r="C102">
-        <v>-0.07333364952236181</v>
+        <v>0.09851759477297781</v>
       </c>
       <c r="D102">
-        <v>0.04351421140934553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05032167052627673</v>
+      </c>
+      <c r="E102">
+        <v>-0.0110184874701037</v>
+      </c>
+      <c r="F102">
+        <v>-0.037879841233659</v>
+      </c>
+      <c r="G102">
+        <v>-0.02109766253882317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
